--- a/code/cloud_exp_results.xlsx
+++ b/code/cloud_exp_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmccl\OneDrive\Documents\PhD\Research\Sat Vision Orbit Determ\lost-in-space\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907F3AF-A8B9-421C-A383-7BE055D1451C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A162B534-EC3D-4043-90FE-65C2B17D2E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="3945" windowWidth="16020" windowHeight="15345" xr2:uid="{019A4DAE-4578-4573-B712-AF749EA3B117}"/>
+    <workbookView xWindow="15450" yWindow="4140" windowWidth="16020" windowHeight="15345" xr2:uid="{019A4DAE-4578-4573-B712-AF749EA3B117}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Cloud Coverage</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>including previous</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>5 to 10</t>
+  </si>
+  <si>
+    <t>10 to 20</t>
+  </si>
+  <si>
+    <t>20 to 30</t>
+  </si>
+  <si>
+    <t>30 to 40</t>
+  </si>
+  <si>
+    <t>40 to 50</t>
   </si>
 </sst>
 </file>
@@ -110,12 +128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -221,8 +240,9 @@
           <c:h val="0.64181284631087776"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -239,43 +259,40 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>&lt;5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5 to 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>10 to 20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>20 to 30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>30 to 40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>40 to 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -304,13 +321,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F580-4B6F-A800-BFF7D336AA1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1900915584"/>
+        <c:axId val="2005175328"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -379,6 +410,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1900915584"/>
         <c:axId val="2005175328"/>
@@ -614,8 +646,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46412992125984254"/>
-          <c:y val="0.59763888888888894"/>
+          <c:x val="1.4129921259842526E-2"/>
+          <c:y val="0.89393518518518522"/>
           <c:w val="0.41506758530183729"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
@@ -1590,7 +1622,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,8 +1668,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>0.89500000000000002</v>
@@ -1668,7 +1700,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
@@ -1700,8 +1732,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>0.84799999999999998</v>
@@ -1732,8 +1764,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>30</v>
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>0.84599999999999997</v>
@@ -1764,8 +1796,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>40</v>
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>0.76400000000000001</v>
@@ -1796,8 +1828,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>50</v>
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0.71399999999999997</v>
